--- a/SAM (AGUA_and_PARSER)/vertical_agua.xlsx
+++ b/SAM (AGUA_and_PARSER)/vertical_agua.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM-main (pimenta)\SAM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor Magal\Desktop\SAM (AGUA_and_PARSER)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4359F151-B0D4-4E53-A9DF-18B43883E164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A784345-BE24-4B10-999F-78B54DB8CD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,9 +46,6 @@
     <t>Dc_identificador_pessoa_juridica</t>
   </si>
   <si>
-    <t>Valores_consumo Valor</t>
-  </si>
-  <si>
     <t>Dt_vencimento</t>
   </si>
   <si>
@@ -98,6 +95,9 @@
   </si>
   <si>
     <t>Valores_faturados Descricao</t>
+  </si>
+  <si>
+    <t>Valores_consumo</t>
   </si>
 </sst>
 </file>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +472,7 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -487,19 +487,19 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
-      </c>
-      <c r="J1" t="s">
-        <v>23</v>
       </c>
       <c r="K1" t="s">
         <v>4</v>
@@ -511,40 +511,40 @@
         <v>6</v>
       </c>
       <c r="N1" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>16</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>17</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
